--- a/exams/1/vliw_template.xlsx
+++ b/exams/1/vliw_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrabb\Desktop\Wonsun Ahn\cs1541\CS1541_Fall2020\exams\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBAAAB6-AC65-4954-92B2-3E80F69C067A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D45B04-E4E1-4A2F-96C5-83D0ED88B3AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="285" windowWidth="13650" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13995" yWindow="240" windowWidth="13650" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Cycle</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Load/Store</t>
-  </si>
-  <si>
-    <t>Write the pipeline timeline for a 2-wide VLIW processor with one ALU/Branch operation slot and one Load/Store operation slot.</t>
   </si>
   <si>
     <t>Write the list of VLIW instructions based on the above schedule (note: you may have less than 10 instructions).</t>
@@ -116,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -127,20 +124,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="B14" sqref="B14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,37 +429,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -493,268 +539,215 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1">
-        <v>7</v>
-      </c>
-      <c r="I3" s="1">
-        <v>8</v>
-      </c>
-      <c r="J3" s="1">
-        <v>9</v>
-      </c>
-      <c r="K3" s="1">
-        <v>10</v>
-      </c>
-      <c r="L3" s="1">
-        <v>11</v>
-      </c>
-      <c r="M3" s="1">
-        <v>12</v>
-      </c>
-      <c r="N3" s="1">
-        <v>13</v>
-      </c>
-      <c r="O3" s="1">
-        <v>14</v>
-      </c>
-      <c r="P3" s="1">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>16</v>
-      </c>
-      <c r="R3" s="1">
-        <v>17</v>
-      </c>
-      <c r="S3" s="1">
-        <v>18</v>
-      </c>
-      <c r="T3" s="1">
-        <v>19</v>
-      </c>
-      <c r="U3" s="1">
-        <v>20</v>
-      </c>
-      <c r="V3" s="1">
-        <v>21</v>
-      </c>
-      <c r="W3" s="1">
-        <v>22</v>
-      </c>
-      <c r="X3" s="1">
-        <v>23</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>24</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>25</v>
-      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
+      <c r="A10" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -782,83 +775,52 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-    </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="3">
         <v>2</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -871,7 +833,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -884,7 +846,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -897,7 +859,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -910,7 +872,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -923,7 +885,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -936,7 +898,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -949,7 +911,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -960,58 +922,31 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>9</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>10</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A1:Z1"/>
-    <mergeCell ref="A12:Z12"/>
-    <mergeCell ref="B18:E18"/>
+  <mergeCells count="23">
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
     <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="A10:Z10"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/exams/1/vliw_template.xlsx
+++ b/exams/1/vliw_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrabb\Desktop\Wonsun Ahn\cs1541\CS1541_Fall2020\exams\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D45B04-E4E1-4A2F-96C5-83D0ED88B3AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91879A8D-34C8-4D35-8C33-382E2155AFCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13995" yWindow="240" windowWidth="13650" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Cycle</t>
   </si>
@@ -42,22 +42,7 @@
     <t>Write the list of VLIW instructions based on the above schedule (note: you may have less than 10 instructions).</t>
   </si>
   <si>
-    <t>lw t0, 8(s0)</t>
-  </si>
-  <si>
-    <t>addi t0, t0, 20</t>
-  </si>
-  <si>
-    <t>sw t0, 8(s0)</t>
-  </si>
-  <si>
-    <t>lw t0, 12(s0)</t>
-  </si>
-  <si>
-    <t>beq t0, s0, loop</t>
-  </si>
-  <si>
-    <t>sw t0, 16(s0)</t>
+    <t>Fill in the 7 instructions yourself please.  Again, the beq branch is taken so the first lw instruction will be repeated.</t>
   </si>
 </sst>
 </file>
@@ -113,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -132,6 +117,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -416,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z22"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:E14"/>
+      <selection sqref="A1:Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,149 +417,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D3" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E3" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F3" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G3" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H3" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I3" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J3" s="1">
         <v>9</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K3" s="1">
         <v>10</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L3" s="1">
         <v>11</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M3" s="1">
         <v>12</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N3" s="1">
         <v>13</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O3" s="1">
         <v>14</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P3" s="1">
         <v>15</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q3" s="1">
         <v>16</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R3" s="1">
         <v>17</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S3" s="1">
         <v>18</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T3" s="1">
         <v>19</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U3" s="1">
         <v>20</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V3" s="1">
         <v>21</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W3" s="1">
         <v>22</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X3" s="1">
         <v>23</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y3" s="1">
         <v>24</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z3" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-    </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -599,9 +583,7 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -629,9 +611,7 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -659,9 +639,7 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -689,9 +667,7 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -719,6 +695,7 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -746,81 +723,110 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="B14" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -833,7 +839,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -846,7 +852,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -859,7 +865,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -872,7 +878,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -885,7 +891,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -898,7 +904,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -911,7 +917,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -922,31 +928,58 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
     </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>9</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>10</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="A12:Z12"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
     <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="A10:Z10"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
